--- a/spx_gov_2019.xlsx
+++ b/spx_gov_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmillsop\source\w266_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78E9B42-9448-4D49-B40D-31288659FC3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E936E947-3560-4A72-8A35-66EC0C439AA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>

--- a/spx_gov_2019.xlsx
+++ b/spx_gov_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmillsop\source\w266_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E936E947-3560-4A72-8A35-66EC0C439AA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E21AD1-B82E-46BA-BDEE-0ACC1FB44173}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
